--- a/data/pca/factorExposure/factorExposure_2011-12-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01225162092724817</v>
+        <v>-0.012681479781093</v>
       </c>
       <c r="C2">
-        <v>0.03263608340723208</v>
+        <v>-0.02633566738707205</v>
       </c>
       <c r="D2">
-        <v>0.01770870208172562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02221531705589402</v>
+      </c>
+      <c r="E2">
+        <v>-0.007875178624591203</v>
+      </c>
+      <c r="F2">
+        <v>0.02571520317681354</v>
+      </c>
+      <c r="G2">
+        <v>0.003080235525688179</v>
+      </c>
+      <c r="H2">
+        <v>0.02661517991903805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07569810913478407</v>
+        <v>-0.0884571120924708</v>
       </c>
       <c r="C4">
-        <v>0.0558698146262182</v>
+        <v>-0.03821270229842855</v>
       </c>
       <c r="D4">
-        <v>0.07728592340757985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0695217870254741</v>
+      </c>
+      <c r="E4">
+        <v>-0.008984786637642289</v>
+      </c>
+      <c r="F4">
+        <v>0.03900177587479451</v>
+      </c>
+      <c r="G4">
+        <v>-0.01798257559642295</v>
+      </c>
+      <c r="H4">
+        <v>-0.04046759128002571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1115645623437506</v>
+        <v>-0.1243379825538709</v>
       </c>
       <c r="C6">
-        <v>0.05530741667337318</v>
+        <v>-0.04022458382057609</v>
       </c>
       <c r="D6">
-        <v>0.0007032775590753519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.007936707838277903</v>
+      </c>
+      <c r="E6">
+        <v>0.02714639204167985</v>
+      </c>
+      <c r="F6">
+        <v>0.05165246816281277</v>
+      </c>
+      <c r="G6">
+        <v>-0.02377157404068599</v>
+      </c>
+      <c r="H6">
+        <v>0.1264245984388468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05538235793922071</v>
+        <v>-0.06468753987085905</v>
       </c>
       <c r="C7">
-        <v>0.03248874319111878</v>
+        <v>-0.01702632606135111</v>
       </c>
       <c r="D7">
-        <v>0.02987966781023644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04984255793869932</v>
+      </c>
+      <c r="E7">
+        <v>-0.03129967530601459</v>
+      </c>
+      <c r="F7">
+        <v>0.03920927391870972</v>
+      </c>
+      <c r="G7">
+        <v>0.0346988312053673</v>
+      </c>
+      <c r="H7">
+        <v>-0.01993556902316608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03940585832423519</v>
+        <v>-0.0424251287393367</v>
       </c>
       <c r="C8">
-        <v>0.01333747449239953</v>
+        <v>-0.008965164809827822</v>
       </c>
       <c r="D8">
-        <v>0.06218201319413009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02536970264509119</v>
+      </c>
+      <c r="E8">
+        <v>-0.01303103569741271</v>
+      </c>
+      <c r="F8">
+        <v>0.06847910827908935</v>
+      </c>
+      <c r="G8">
+        <v>-0.0768906165559764</v>
+      </c>
+      <c r="H8">
+        <v>0.02006573364603716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07038425309135647</v>
+        <v>-0.08000569125884725</v>
       </c>
       <c r="C9">
-        <v>0.04048657899805427</v>
+        <v>-0.02414485468115171</v>
       </c>
       <c r="D9">
-        <v>0.07170325122605875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06395411969176285</v>
+      </c>
+      <c r="E9">
+        <v>-0.02437304116717609</v>
+      </c>
+      <c r="F9">
+        <v>0.03309406154498744</v>
+      </c>
+      <c r="G9">
+        <v>-0.03169072894270171</v>
+      </c>
+      <c r="H9">
+        <v>-0.0449748284171776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02770197257518769</v>
+        <v>-0.04399693397250126</v>
       </c>
       <c r="C10">
-        <v>0.02235949947977543</v>
+        <v>-0.05648778335966763</v>
       </c>
       <c r="D10">
-        <v>-0.1736364909287932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1774392234727716</v>
+      </c>
+      <c r="E10">
+        <v>-0.04027321433765913</v>
+      </c>
+      <c r="F10">
+        <v>0.04951139765260675</v>
+      </c>
+      <c r="G10">
+        <v>0.03541581241573004</v>
+      </c>
+      <c r="H10">
+        <v>0.05408093680846709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07142336675520741</v>
+        <v>-0.075647188994591</v>
       </c>
       <c r="C11">
-        <v>0.04537088981451351</v>
+        <v>-0.02228636008096013</v>
       </c>
       <c r="D11">
-        <v>0.0529598831663772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06605573138971305</v>
+      </c>
+      <c r="E11">
+        <v>0.003062735669839702</v>
+      </c>
+      <c r="F11">
+        <v>0.03036811872334253</v>
+      </c>
+      <c r="G11">
+        <v>-0.0478417515847406</v>
+      </c>
+      <c r="H11">
+        <v>-0.07039130078750043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06087928846631063</v>
+        <v>-0.06955891390284048</v>
       </c>
       <c r="C12">
-        <v>0.05361044685356592</v>
+        <v>-0.03404181005943161</v>
       </c>
       <c r="D12">
-        <v>0.04248366854119926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05085459174432935</v>
+      </c>
+      <c r="E12">
+        <v>-0.01299238779785859</v>
+      </c>
+      <c r="F12">
+        <v>0.02182475124976761</v>
+      </c>
+      <c r="G12">
+        <v>-0.02835779540624971</v>
+      </c>
+      <c r="H12">
+        <v>-0.03406792053974046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06846312656486908</v>
+        <v>-0.06786189496269075</v>
       </c>
       <c r="C13">
-        <v>0.03484983139409567</v>
+        <v>-0.01637021778186733</v>
       </c>
       <c r="D13">
-        <v>0.04005585339584033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03667939646983333</v>
+      </c>
+      <c r="E13">
+        <v>-0.00614187300042311</v>
+      </c>
+      <c r="F13">
+        <v>0.02915057799213131</v>
+      </c>
+      <c r="G13">
+        <v>-0.02891366844612403</v>
+      </c>
+      <c r="H13">
+        <v>-0.0464345686441117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03275096559207065</v>
+        <v>-0.03996239061958819</v>
       </c>
       <c r="C14">
-        <v>0.03406722407232957</v>
+        <v>-0.02890012321074461</v>
       </c>
       <c r="D14">
-        <v>-0.01019717810688855</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01249604977744989</v>
+      </c>
+      <c r="E14">
+        <v>-0.02630849993946246</v>
+      </c>
+      <c r="F14">
+        <v>0.01442426481124856</v>
+      </c>
+      <c r="G14">
+        <v>-0.02309572637576478</v>
+      </c>
+      <c r="H14">
+        <v>-0.05595584580627497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04176927197745244</v>
+        <v>-0.04063134901203556</v>
       </c>
       <c r="C15">
-        <v>0.01094619436182935</v>
+        <v>-0.003389777340296488</v>
       </c>
       <c r="D15">
-        <v>0.02188769414183852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008581406170437886</v>
+      </c>
+      <c r="E15">
+        <v>-0.03687977762370193</v>
+      </c>
+      <c r="F15">
+        <v>0.003860730844548643</v>
+      </c>
+      <c r="G15">
+        <v>-0.03468252557749481</v>
+      </c>
+      <c r="H15">
+        <v>-0.02369490572045293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05981090823759605</v>
+        <v>-0.07102432106471709</v>
       </c>
       <c r="C16">
-        <v>0.04276099240032959</v>
+        <v>-0.02492014129885225</v>
       </c>
       <c r="D16">
-        <v>0.05320753227273816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06411994524152358</v>
+      </c>
+      <c r="E16">
+        <v>-0.006878640503098553</v>
+      </c>
+      <c r="F16">
+        <v>0.02915589264377099</v>
+      </c>
+      <c r="G16">
+        <v>-0.02732226725369139</v>
+      </c>
+      <c r="H16">
+        <v>-0.0540657346594117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06482372429132779</v>
+        <v>-0.0635142866177302</v>
       </c>
       <c r="C20">
-        <v>0.02877789955486255</v>
+        <v>-0.009397186291526208</v>
       </c>
       <c r="D20">
-        <v>0.04540114768007331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03963609712125202</v>
+      </c>
+      <c r="E20">
+        <v>-0.009340998256478288</v>
+      </c>
+      <c r="F20">
+        <v>0.02839835766314405</v>
+      </c>
+      <c r="G20">
+        <v>-0.02511836742584877</v>
+      </c>
+      <c r="H20">
+        <v>-0.04679843112331217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03153329965984901</v>
+        <v>-0.02835402913727419</v>
       </c>
       <c r="C21">
-        <v>0.00393010927363978</v>
+        <v>0.006493895535390248</v>
       </c>
       <c r="D21">
-        <v>0.01516438685456162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02125853322737765</v>
+      </c>
+      <c r="E21">
+        <v>-0.04142870793645968</v>
+      </c>
+      <c r="F21">
+        <v>-0.01581658925829811</v>
+      </c>
+      <c r="G21">
+        <v>-0.008274179140023792</v>
+      </c>
+      <c r="H21">
+        <v>0.04824025061587155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07966407245894511</v>
+        <v>-0.07032517869397927</v>
       </c>
       <c r="C22">
-        <v>0.06136674541716816</v>
+        <v>-0.02930798543500826</v>
       </c>
       <c r="D22">
-        <v>0.1479091266084342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1044385053018356</v>
+      </c>
+      <c r="E22">
+        <v>-0.6100225836766854</v>
+      </c>
+      <c r="F22">
+        <v>-0.06218758570330869</v>
+      </c>
+      <c r="G22">
+        <v>0.1781126741627264</v>
+      </c>
+      <c r="H22">
+        <v>0.1384248503226338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08070078633047449</v>
+        <v>-0.07124362216059323</v>
       </c>
       <c r="C23">
-        <v>0.05989336162739752</v>
+        <v>-0.02781795070787257</v>
       </c>
       <c r="D23">
-        <v>0.1491733461190704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.105501738964477</v>
+      </c>
+      <c r="E23">
+        <v>-0.6121014722656076</v>
+      </c>
+      <c r="F23">
+        <v>-0.06158972319610011</v>
+      </c>
+      <c r="G23">
+        <v>0.1721298346105894</v>
+      </c>
+      <c r="H23">
+        <v>0.1345345002283452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07794614904690844</v>
+        <v>-0.08134989900476569</v>
       </c>
       <c r="C24">
-        <v>0.05620765028491109</v>
+        <v>-0.0314625946563112</v>
       </c>
       <c r="D24">
-        <v>0.05612858801152175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06311983403634083</v>
+      </c>
+      <c r="E24">
+        <v>-0.01190614300372345</v>
+      </c>
+      <c r="F24">
+        <v>0.03608212080413442</v>
+      </c>
+      <c r="G24">
+        <v>-0.04029956316562334</v>
+      </c>
+      <c r="H24">
+        <v>-0.03640929267649996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07494704789477349</v>
+        <v>-0.07965905132181579</v>
       </c>
       <c r="C25">
-        <v>0.0564822646299294</v>
+        <v>-0.03448895402789538</v>
       </c>
       <c r="D25">
-        <v>0.05558987608288118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05229484454832335</v>
+      </c>
+      <c r="E25">
+        <v>-0.01962677345540517</v>
+      </c>
+      <c r="F25">
+        <v>0.03285636691122319</v>
+      </c>
+      <c r="G25">
+        <v>-0.05242708357251527</v>
+      </c>
+      <c r="H25">
+        <v>-0.04054933444439319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04709178039460461</v>
+        <v>-0.04647982481578567</v>
       </c>
       <c r="C26">
-        <v>0.01605264626053061</v>
+        <v>-0.004942362752991261</v>
       </c>
       <c r="D26">
-        <v>0.006655872266434012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01877784182534746</v>
+      </c>
+      <c r="E26">
+        <v>-0.04134525139699038</v>
+      </c>
+      <c r="F26">
+        <v>0.03154449120569509</v>
+      </c>
+      <c r="G26">
+        <v>-0.01439903361603046</v>
+      </c>
+      <c r="H26">
+        <v>-0.04671887950952074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04387913471085867</v>
+        <v>-0.06800833233456245</v>
       </c>
       <c r="C28">
-        <v>0.06533497156323631</v>
+        <v>-0.1136424485623936</v>
       </c>
       <c r="D28">
-        <v>-0.3057824408203261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2976901040635439</v>
+      </c>
+      <c r="E28">
+        <v>-0.03733170778388407</v>
+      </c>
+      <c r="F28">
+        <v>0.0541938573313285</v>
+      </c>
+      <c r="G28">
+        <v>-0.02123702690305471</v>
+      </c>
+      <c r="H28">
+        <v>0.04969065240736427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04508699596519022</v>
+        <v>-0.04737070682237805</v>
       </c>
       <c r="C29">
-        <v>0.0319538811024838</v>
+        <v>-0.02310941461343822</v>
       </c>
       <c r="D29">
-        <v>0.002085064859915609</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01279078895533938</v>
+      </c>
+      <c r="E29">
+        <v>-0.05750300918722306</v>
+      </c>
+      <c r="F29">
+        <v>0.01219754575527492</v>
+      </c>
+      <c r="G29">
+        <v>-0.01143963306027969</v>
+      </c>
+      <c r="H29">
+        <v>-0.07011777137306548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1288359265316195</v>
+        <v>-0.1271253956777847</v>
       </c>
       <c r="C30">
-        <v>0.09305119576573979</v>
+        <v>-0.05781984619042918</v>
       </c>
       <c r="D30">
-        <v>0.1134302104030401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08210644320588562</v>
+      </c>
+      <c r="E30">
+        <v>-0.05510585062781436</v>
+      </c>
+      <c r="F30">
+        <v>0.0125856158045038</v>
+      </c>
+      <c r="G30">
+        <v>-0.06236694224078439</v>
+      </c>
+      <c r="H30">
+        <v>0.03359421266282576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04884815187346119</v>
+        <v>-0.04966839679282911</v>
       </c>
       <c r="C31">
-        <v>0.02483317936576679</v>
+        <v>-0.01074096412365749</v>
       </c>
       <c r="D31">
-        <v>0.0181969826024907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03443344822430198</v>
+      </c>
+      <c r="E31">
+        <v>-0.0256142442358462</v>
+      </c>
+      <c r="F31">
+        <v>0.007484810032641179</v>
+      </c>
+      <c r="G31">
+        <v>-0.001472601167478336</v>
+      </c>
+      <c r="H31">
+        <v>-0.07032562624180032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03458757318240232</v>
+        <v>-0.03832847492060773</v>
       </c>
       <c r="C32">
-        <v>0.02297156541705241</v>
+        <v>-0.02096208671771419</v>
       </c>
       <c r="D32">
-        <v>0.02911359246284562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01186964724067834</v>
+      </c>
+      <c r="E32">
+        <v>-0.05214962473416286</v>
+      </c>
+      <c r="F32">
+        <v>-0.004010293629756442</v>
+      </c>
+      <c r="G32">
+        <v>-0.04317077207130859</v>
+      </c>
+      <c r="H32">
+        <v>-0.02628628627118463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08703130623061166</v>
+        <v>-0.09460761635800476</v>
       </c>
       <c r="C33">
-        <v>0.04864009936277809</v>
+        <v>-0.02572089876378834</v>
       </c>
       <c r="D33">
-        <v>0.0464080333187008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04977428613748305</v>
+      </c>
+      <c r="E33">
+        <v>-0.01501092932782369</v>
+      </c>
+      <c r="F33">
+        <v>0.003806042450892923</v>
+      </c>
+      <c r="G33">
+        <v>-0.01784285173788402</v>
+      </c>
+      <c r="H33">
+        <v>-0.06791466484508088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05888190395970788</v>
+        <v>-0.06466236948549754</v>
       </c>
       <c r="C34">
-        <v>0.02614510231549391</v>
+        <v>-0.008912465495576385</v>
       </c>
       <c r="D34">
-        <v>0.04702606706620915</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04842278767203414</v>
+      </c>
+      <c r="E34">
+        <v>-0.00800264783422675</v>
+      </c>
+      <c r="F34">
+        <v>0.02413111365089803</v>
+      </c>
+      <c r="G34">
+        <v>-0.03364939621027632</v>
+      </c>
+      <c r="H34">
+        <v>-0.04559727253429694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03746029416059309</v>
+        <v>-0.03859605005367753</v>
       </c>
       <c r="C35">
-        <v>0.01205242810515197</v>
+        <v>-0.004761778220167234</v>
       </c>
       <c r="D35">
-        <v>0.02030681672495606</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01611042286572729</v>
+      </c>
+      <c r="E35">
+        <v>-0.0235941324154003</v>
+      </c>
+      <c r="F35">
+        <v>-0.01862837905099211</v>
+      </c>
+      <c r="G35">
+        <v>0.004078995966650713</v>
+      </c>
+      <c r="H35">
+        <v>-0.03473072186270169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02475953239554285</v>
+        <v>-0.0291958907872632</v>
       </c>
       <c r="C36">
-        <v>0.01997971986168368</v>
+        <v>-0.01532972113628171</v>
       </c>
       <c r="D36">
-        <v>0.01932054775421311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01696520530943223</v>
+      </c>
+      <c r="E36">
+        <v>-0.03009724537348713</v>
+      </c>
+      <c r="F36">
+        <v>0.02940892640914716</v>
+      </c>
+      <c r="G36">
+        <v>-0.006818925616455471</v>
+      </c>
+      <c r="H36">
+        <v>-0.05009298137162788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04678506330918545</v>
+        <v>-0.04674469291262277</v>
       </c>
       <c r="C38">
-        <v>0.005439284989668673</v>
+        <v>0.003947488571974242</v>
       </c>
       <c r="D38">
-        <v>0.01349752422422285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01878507218909554</v>
+      </c>
+      <c r="E38">
+        <v>-0.04883154635685787</v>
+      </c>
+      <c r="F38">
+        <v>-0.001238105291528583</v>
+      </c>
+      <c r="G38">
+        <v>-0.006025398717568758</v>
+      </c>
+      <c r="H38">
+        <v>-0.02189246389616883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09316032921003248</v>
+        <v>-0.1023019505386341</v>
       </c>
       <c r="C39">
-        <v>0.06911076539883225</v>
+        <v>-0.04438056543012468</v>
       </c>
       <c r="D39">
-        <v>0.05354229306005777</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0652707231307476</v>
+      </c>
+      <c r="E39">
+        <v>-0.0001146474232418775</v>
+      </c>
+      <c r="F39">
+        <v>-0.007541995930827318</v>
+      </c>
+      <c r="G39">
+        <v>-0.03941152104612876</v>
+      </c>
+      <c r="H39">
+        <v>-0.02516715255642345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08089766898756322</v>
+        <v>-0.06282124967622249</v>
       </c>
       <c r="C40">
-        <v>0.03653753035238882</v>
+        <v>-0.003899366067130167</v>
       </c>
       <c r="D40">
-        <v>0.01078129671982113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03411868426500734</v>
+      </c>
+      <c r="E40">
+        <v>-0.0339897015282937</v>
+      </c>
+      <c r="F40">
+        <v>-0.03838986771854738</v>
+      </c>
+      <c r="G40">
+        <v>-0.04779106666185542</v>
+      </c>
+      <c r="H40">
+        <v>0.07024878005913468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04532549825081921</v>
+        <v>-0.0470254055921032</v>
       </c>
       <c r="C41">
-        <v>0.01312938932843656</v>
+        <v>-0.0005509809969725406</v>
       </c>
       <c r="D41">
-        <v>0.03637956603808583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03162706698029946</v>
+      </c>
+      <c r="E41">
+        <v>-0.004365343836135831</v>
+      </c>
+      <c r="F41">
+        <v>-0.01424522421017945</v>
+      </c>
+      <c r="G41">
+        <v>-0.0102744537402915</v>
+      </c>
+      <c r="H41">
+        <v>-0.02703029440816093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05394344659677745</v>
+        <v>-0.06075967562312899</v>
       </c>
       <c r="C43">
-        <v>0.02874679121574419</v>
+        <v>-0.01717422389576633</v>
       </c>
       <c r="D43">
-        <v>0.01052220436661746</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0283733842943488</v>
+      </c>
+      <c r="E43">
+        <v>-0.02299286309360307</v>
+      </c>
+      <c r="F43">
+        <v>0.0155712199592624</v>
+      </c>
+      <c r="G43">
+        <v>0.005404009272489262</v>
+      </c>
+      <c r="H43">
+        <v>-0.06502565277952974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09657667391017907</v>
+        <v>-0.09366919829711336</v>
       </c>
       <c r="C44">
-        <v>0.08554333333082839</v>
+        <v>-0.05328674274028366</v>
       </c>
       <c r="D44">
-        <v>0.06733236104672187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07115288444186112</v>
+      </c>
+      <c r="E44">
+        <v>-0.06000154608843759</v>
+      </c>
+      <c r="F44">
+        <v>0.08569651043490234</v>
+      </c>
+      <c r="G44">
+        <v>-0.07360029934845964</v>
+      </c>
+      <c r="H44">
+        <v>-0.08302761073417797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02697172054856325</v>
+        <v>-0.03520960912512645</v>
       </c>
       <c r="C46">
-        <v>0.01756503130290432</v>
+        <v>-0.01133865405444199</v>
       </c>
       <c r="D46">
-        <v>0.03172376324418272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03605054032654138</v>
+      </c>
+      <c r="E46">
+        <v>-0.03099808455015381</v>
+      </c>
+      <c r="F46">
+        <v>0.01664311519269696</v>
+      </c>
+      <c r="G46">
+        <v>-0.004618525840874466</v>
+      </c>
+      <c r="H46">
+        <v>-0.0215665089457573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03436887365619556</v>
+        <v>-0.04098371730510372</v>
       </c>
       <c r="C47">
-        <v>0.02462558911290567</v>
+        <v>-0.01933634086902344</v>
       </c>
       <c r="D47">
-        <v>-0.001177903424767058</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.007291622934536422</v>
+      </c>
+      <c r="E47">
+        <v>-0.03941226018983486</v>
+      </c>
+      <c r="F47">
+        <v>-0.008767622968558575</v>
+      </c>
+      <c r="G47">
+        <v>0.02892861556963338</v>
+      </c>
+      <c r="H47">
+        <v>-0.02939953404903449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03716775823146683</v>
+        <v>-0.04061097910367631</v>
       </c>
       <c r="C48">
-        <v>0.02494045804656042</v>
+        <v>-0.01513248508821955</v>
       </c>
       <c r="D48">
-        <v>0.02786575556616</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01996640780937317</v>
+      </c>
+      <c r="E48">
+        <v>-0.03899960779605491</v>
+      </c>
+      <c r="F48">
+        <v>0.01087176957829882</v>
+      </c>
+      <c r="G48">
+        <v>-0.01850628758285822</v>
+      </c>
+      <c r="H48">
+        <v>-0.02696138203248441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1625244486629003</v>
+        <v>-0.1989934586077608</v>
       </c>
       <c r="C49">
-        <v>0.05222070845627247</v>
+        <v>-0.03545504964301807</v>
       </c>
       <c r="D49">
-        <v>0.0007679927635805095</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02397799247751004</v>
+      </c>
+      <c r="E49">
+        <v>0.1671957244239467</v>
+      </c>
+      <c r="F49">
+        <v>0.04224130369079919</v>
+      </c>
+      <c r="G49">
+        <v>0.1633856070606203</v>
+      </c>
+      <c r="H49">
+        <v>0.2216164032157301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04263727123958104</v>
+        <v>-0.04521210642997264</v>
       </c>
       <c r="C50">
-        <v>0.02562619637205431</v>
+        <v>-0.01340547961984941</v>
       </c>
       <c r="D50">
-        <v>0.03688494882362111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0400694801737877</v>
+      </c>
+      <c r="E50">
+        <v>-0.03659341454343874</v>
+      </c>
+      <c r="F50">
+        <v>0.005097876977134069</v>
+      </c>
+      <c r="G50">
+        <v>-0.005823953456355307</v>
+      </c>
+      <c r="H50">
+        <v>-0.0798448701604024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02885029690025159</v>
+        <v>-0.0350423601432367</v>
       </c>
       <c r="C51">
-        <v>0.01151253459322747</v>
+        <v>-0.007134936496845125</v>
       </c>
       <c r="D51">
-        <v>-0.003327772340052897</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001020176803182262</v>
+      </c>
+      <c r="E51">
+        <v>-0.01144877967065904</v>
+      </c>
+      <c r="F51">
+        <v>0.006708776051993901</v>
+      </c>
+      <c r="G51">
+        <v>0.01662891528821099</v>
+      </c>
+      <c r="H51">
+        <v>0.01807033869847586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1545152709496928</v>
+        <v>-0.1604118104490968</v>
       </c>
       <c r="C53">
-        <v>0.07546781437051314</v>
+        <v>-0.04622388157299492</v>
       </c>
       <c r="D53">
-        <v>-0.004376759974619541</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02574883170776275</v>
+      </c>
+      <c r="E53">
+        <v>0.03187127595779143</v>
+      </c>
+      <c r="F53">
+        <v>0.001400280769328458</v>
+      </c>
+      <c r="G53">
+        <v>-0.03001546700685894</v>
+      </c>
+      <c r="H53">
+        <v>-0.1945619926594616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05890417899526104</v>
+        <v>-0.05836285739876303</v>
       </c>
       <c r="C54">
-        <v>0.02423976663382479</v>
+        <v>-0.0126933777145325</v>
       </c>
       <c r="D54">
-        <v>0.01521177219033921</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01474959205760966</v>
+      </c>
+      <c r="E54">
+        <v>-0.05348360596806984</v>
+      </c>
+      <c r="F54">
+        <v>0.01098937621495351</v>
+      </c>
+      <c r="G54">
+        <v>-0.05956322194828521</v>
+      </c>
+      <c r="H54">
+        <v>-0.0364025206985522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1034389034451969</v>
+        <v>-0.1037487034449762</v>
       </c>
       <c r="C55">
-        <v>0.05481379957552815</v>
+        <v>-0.03202861269120424</v>
       </c>
       <c r="D55">
-        <v>0.01438359627824303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03026784632438439</v>
+      </c>
+      <c r="E55">
+        <v>-0.002899344716915698</v>
+      </c>
+      <c r="F55">
+        <v>0.0159814619742864</v>
+      </c>
+      <c r="G55">
+        <v>-0.03505679681890488</v>
+      </c>
+      <c r="H55">
+        <v>-0.155751413656655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1496027183982808</v>
+        <v>-0.1563960935621159</v>
       </c>
       <c r="C56">
-        <v>0.08147785947337551</v>
+        <v>-0.04901639296998342</v>
       </c>
       <c r="D56">
-        <v>0.000464509460044409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04054660305538129</v>
+      </c>
+      <c r="E56">
+        <v>0.01452253153360257</v>
+      </c>
+      <c r="F56">
+        <v>0.02455436621192114</v>
+      </c>
+      <c r="G56">
+        <v>-0.03361940221269</v>
+      </c>
+      <c r="H56">
+        <v>-0.1971489380910044</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1311323814905194</v>
+        <v>-0.09959544013231925</v>
       </c>
       <c r="C58">
-        <v>-0.012609697020576</v>
+        <v>0.05640408527188422</v>
       </c>
       <c r="D58">
-        <v>0.04918021591833444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03267909325733953</v>
+      </c>
+      <c r="E58">
+        <v>-0.1225267479939321</v>
+      </c>
+      <c r="F58">
+        <v>0.02698854101168936</v>
+      </c>
+      <c r="G58">
+        <v>0.08947496684083711</v>
+      </c>
+      <c r="H58">
+        <v>0.1346026689884253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1173453278649914</v>
+        <v>-0.1440963773405406</v>
       </c>
       <c r="C59">
-        <v>0.07079580131795211</v>
+        <v>-0.1165477711214718</v>
       </c>
       <c r="D59">
-        <v>-0.3989466206124106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3542781871890254</v>
+      </c>
+      <c r="E59">
+        <v>-0.03400684112289509</v>
+      </c>
+      <c r="F59">
+        <v>-0.0001391386220245441</v>
+      </c>
+      <c r="G59">
+        <v>0.004056313056045925</v>
+      </c>
+      <c r="H59">
+        <v>-0.01098056786793399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2089292137361395</v>
+        <v>-0.2395468267434307</v>
       </c>
       <c r="C60">
-        <v>0.09263607850996408</v>
+        <v>-0.06022327449893534</v>
       </c>
       <c r="D60">
-        <v>0.009656817059380691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0437620596001367</v>
+      </c>
+      <c r="E60">
+        <v>0.1138600698541248</v>
+      </c>
+      <c r="F60">
+        <v>0.04671031830661684</v>
+      </c>
+      <c r="G60">
+        <v>0.04151995800586771</v>
+      </c>
+      <c r="H60">
+        <v>0.146603974137558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08052607853834801</v>
+        <v>-0.08627988291637537</v>
       </c>
       <c r="C61">
-        <v>0.04583641843516057</v>
+        <v>-0.02726105466767376</v>
       </c>
       <c r="D61">
-        <v>0.03409253766981488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04408143626983567</v>
+      </c>
+      <c r="E61">
+        <v>-0.006313542924027277</v>
+      </c>
+      <c r="F61">
+        <v>0.005626898307845624</v>
+      </c>
+      <c r="G61">
+        <v>-0.03371559927848415</v>
+      </c>
+      <c r="H61">
+        <v>-0.06096668440499948</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1338389735156496</v>
+        <v>-0.1374173359284301</v>
       </c>
       <c r="C62">
-        <v>0.06105992465279587</v>
+        <v>-0.0296835131247535</v>
       </c>
       <c r="D62">
-        <v>-0.0009378455336157449</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04141745907698975</v>
+      </c>
+      <c r="E62">
+        <v>0.04765168871830472</v>
+      </c>
+      <c r="F62">
+        <v>-0.007506544497193368</v>
+      </c>
+      <c r="G62">
+        <v>-0.06427452447920765</v>
+      </c>
+      <c r="H62">
+        <v>-0.1921612320442629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05250902391588758</v>
+        <v>-0.05123956185836522</v>
       </c>
       <c r="C63">
-        <v>0.02553539547066275</v>
+        <v>-0.01465956240886676</v>
       </c>
       <c r="D63">
-        <v>0.02311503730177607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02096531637068525</v>
+      </c>
+      <c r="E63">
+        <v>-0.04606612843178537</v>
+      </c>
+      <c r="F63">
+        <v>-0.003609876537677208</v>
+      </c>
+      <c r="G63">
+        <v>-0.02777384070699613</v>
+      </c>
+      <c r="H63">
+        <v>-0.03488806061263661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1069486915424827</v>
+        <v>-0.1096575596366029</v>
       </c>
       <c r="C64">
-        <v>0.03683890148506701</v>
+        <v>-0.01769960713162762</v>
       </c>
       <c r="D64">
-        <v>0.02106550653845574</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02814234549774912</v>
+      </c>
+      <c r="E64">
+        <v>-0.03657662985462388</v>
+      </c>
+      <c r="F64">
+        <v>0.04111889925830467</v>
+      </c>
+      <c r="G64">
+        <v>-0.0604124664869339</v>
+      </c>
+      <c r="H64">
+        <v>-0.02335331958051959</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1274238913130561</v>
+        <v>-0.1291473600366373</v>
       </c>
       <c r="C65">
-        <v>0.05895569828054644</v>
+        <v>-0.0402434286407948</v>
       </c>
       <c r="D65">
-        <v>0.007494853936121709</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01102869720423651</v>
+      </c>
+      <c r="E65">
+        <v>0.01041619398039382</v>
+      </c>
+      <c r="F65">
+        <v>0.04504429099990335</v>
+      </c>
+      <c r="G65">
+        <v>-0.05794524204829596</v>
+      </c>
+      <c r="H65">
+        <v>0.1585020705956402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1477249532611437</v>
+        <v>-0.1516675415909984</v>
       </c>
       <c r="C66">
-        <v>0.0718400897456565</v>
+        <v>-0.03343142154897801</v>
       </c>
       <c r="D66">
-        <v>0.09698383365212906</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.102483637255469</v>
+      </c>
+      <c r="E66">
+        <v>0.02744128981616123</v>
+      </c>
+      <c r="F66">
+        <v>-0.001682238977096194</v>
+      </c>
+      <c r="G66">
+        <v>-0.07167629740105938</v>
+      </c>
+      <c r="H66">
+        <v>-0.08628214079174429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07737691874489414</v>
+        <v>-0.08643176951088181</v>
       </c>
       <c r="C67">
-        <v>0.01208593121784164</v>
+        <v>8.123155330328364e-05</v>
       </c>
       <c r="D67">
-        <v>0.01883982926195759</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03017772192910614</v>
+      </c>
+      <c r="E67">
+        <v>-0.02031744458406562</v>
+      </c>
+      <c r="F67">
+        <v>0.01533459921946149</v>
+      </c>
+      <c r="G67">
+        <v>0.01035027289707851</v>
+      </c>
+      <c r="H67">
+        <v>-0.01979613114512325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05288073806314628</v>
+        <v>-0.06207097505685782</v>
       </c>
       <c r="C68">
-        <v>0.04609400848012478</v>
+        <v>-0.08558256147616854</v>
       </c>
       <c r="D68">
-        <v>-0.2600518655287344</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2636832917892282</v>
+      </c>
+      <c r="E68">
+        <v>-0.04661038674687985</v>
+      </c>
+      <c r="F68">
+        <v>0.01575625131718251</v>
+      </c>
+      <c r="G68">
+        <v>-0.002032222003061123</v>
+      </c>
+      <c r="H68">
+        <v>-0.0189548105520182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05412958840597493</v>
+        <v>-0.05304082801614439</v>
       </c>
       <c r="C69">
-        <v>0.01930122141269996</v>
+        <v>-0.005259758781498342</v>
       </c>
       <c r="D69">
-        <v>0.0220951228482866</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01935598619790002</v>
+      </c>
+      <c r="E69">
+        <v>-0.02332328209365763</v>
+      </c>
+      <c r="F69">
+        <v>-0.01331245540994292</v>
+      </c>
+      <c r="G69">
+        <v>-0.00147685862154756</v>
+      </c>
+      <c r="H69">
+        <v>-0.0444553358104821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002708986054396346</v>
+        <v>-0.02751042410968952</v>
       </c>
       <c r="C70">
-        <v>-0.006448101256780159</v>
+        <v>0.001616051770005733</v>
       </c>
       <c r="D70">
-        <v>-0.01108747800877431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007365779960186744</v>
+      </c>
+      <c r="E70">
+        <v>0.02250962056418363</v>
+      </c>
+      <c r="F70">
+        <v>-0.007052987131993691</v>
+      </c>
+      <c r="G70">
+        <v>0.02704641006437257</v>
+      </c>
+      <c r="H70">
+        <v>0.03604993729918457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05236857197068369</v>
+        <v>-0.06839739865713768</v>
       </c>
       <c r="C71">
-        <v>0.0474688496941878</v>
+        <v>-0.097094088505779</v>
       </c>
       <c r="D71">
-        <v>-0.2942872029424592</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2926332930169748</v>
+      </c>
+      <c r="E71">
+        <v>-0.04561211509914418</v>
+      </c>
+      <c r="F71">
+        <v>0.04317103056440932</v>
+      </c>
+      <c r="G71">
+        <v>-0.004150009858882548</v>
+      </c>
+      <c r="H71">
+        <v>-0.01254488143665105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1420070496968078</v>
+        <v>-0.1443024416392087</v>
       </c>
       <c r="C72">
-        <v>0.06382991376413599</v>
+        <v>-0.03555285734244627</v>
       </c>
       <c r="D72">
-        <v>-0.01074041678218372</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002200412308892528</v>
+      </c>
+      <c r="E72">
+        <v>0.05070406921131562</v>
+      </c>
+      <c r="F72">
+        <v>-0.1594728712597411</v>
+      </c>
+      <c r="G72">
+        <v>-0.1127311990941393</v>
+      </c>
+      <c r="H72">
+        <v>0.01061410276581445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2848414862553062</v>
+        <v>-0.2892414853818774</v>
       </c>
       <c r="C73">
-        <v>0.09379928509877432</v>
+        <v>-0.02266959004773306</v>
       </c>
       <c r="D73">
-        <v>0.03742329768733614</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09369914537183741</v>
+      </c>
+      <c r="E73">
+        <v>0.2576181962908285</v>
+      </c>
+      <c r="F73">
+        <v>0.07621145507401453</v>
+      </c>
+      <c r="G73">
+        <v>0.2840234448341534</v>
+      </c>
+      <c r="H73">
+        <v>0.3725819891716219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.0836702227032439</v>
+        <v>-0.09220278673019174</v>
       </c>
       <c r="C74">
-        <v>0.07568624488727685</v>
+        <v>-0.05453695402974458</v>
       </c>
       <c r="D74">
-        <v>0.003604675428641726</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03851857061360185</v>
+      </c>
+      <c r="E74">
+        <v>0.003979654297435169</v>
+      </c>
+      <c r="F74">
+        <v>8.003324991099523e-05</v>
+      </c>
+      <c r="G74">
+        <v>0.01454102590562405</v>
+      </c>
+      <c r="H74">
+        <v>-0.1340783047831126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1005973542789927</v>
+        <v>-0.1026697466530497</v>
       </c>
       <c r="C75">
-        <v>0.04746380998726493</v>
+        <v>-0.02076037763031246</v>
       </c>
       <c r="D75">
-        <v>0.01212000684058439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02554357508560897</v>
+      </c>
+      <c r="E75">
+        <v>0.0008662705000034044</v>
+      </c>
+      <c r="F75">
+        <v>-0.0001474111772266915</v>
+      </c>
+      <c r="G75">
+        <v>7.473980458240567e-05</v>
+      </c>
+      <c r="H75">
+        <v>-0.09682131483217774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1319021572444575</v>
+        <v>-0.1409264713771394</v>
       </c>
       <c r="C76">
-        <v>0.07641516145858612</v>
+        <v>-0.04779909861523794</v>
       </c>
       <c r="D76">
-        <v>0.0243759164634624</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05380824821593037</v>
+      </c>
+      <c r="E76">
+        <v>-0.01620049404391153</v>
+      </c>
+      <c r="F76">
+        <v>0.0340466977669303</v>
+      </c>
+      <c r="G76">
+        <v>-0.04786056593786719</v>
+      </c>
+      <c r="H76">
+        <v>-0.2166687773572582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1187727262652128</v>
+        <v>-0.1026970083543023</v>
       </c>
       <c r="C77">
-        <v>0.02562248163517183</v>
+        <v>0.009929373756365472</v>
       </c>
       <c r="D77">
-        <v>0.08026019424422512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0420720222502584</v>
+      </c>
+      <c r="E77">
+        <v>-0.04695639163074272</v>
+      </c>
+      <c r="F77">
+        <v>0.05438259219602504</v>
+      </c>
+      <c r="G77">
+        <v>-0.7668038257509906</v>
+      </c>
+      <c r="H77">
+        <v>0.4209574668590933</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1077813903144838</v>
+        <v>-0.1525129306077096</v>
       </c>
       <c r="C78">
-        <v>0.0413177637790384</v>
+        <v>-0.03515076744196658</v>
       </c>
       <c r="D78">
-        <v>0.09075533791889127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07865015318200039</v>
+      </c>
+      <c r="E78">
+        <v>-0.05304332233777503</v>
+      </c>
+      <c r="F78">
+        <v>0.0528065355354232</v>
+      </c>
+      <c r="G78">
+        <v>-0.03829811388972303</v>
+      </c>
+      <c r="H78">
+        <v>0.07576833265019955</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1462092575044313</v>
+        <v>-0.1470718208770346</v>
       </c>
       <c r="C79">
-        <v>0.06957473725030559</v>
+        <v>-0.03401703910492433</v>
       </c>
       <c r="D79">
-        <v>0.01749333164442795</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0402033440822671</v>
+      </c>
+      <c r="E79">
+        <v>0.01458722485412927</v>
+      </c>
+      <c r="F79">
+        <v>0.01810720848290701</v>
+      </c>
+      <c r="G79">
+        <v>-0.03847190290427732</v>
+      </c>
+      <c r="H79">
+        <v>-0.1536747683811812</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04087196211280755</v>
+        <v>-0.04210186727006578</v>
       </c>
       <c r="C80">
-        <v>0.01879699045886662</v>
+        <v>-0.01056731942813059</v>
       </c>
       <c r="D80">
-        <v>0.03168897276953932</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01482375898014936</v>
+      </c>
+      <c r="E80">
+        <v>0.03936174540361131</v>
+      </c>
+      <c r="F80">
+        <v>0.003199031074124207</v>
+      </c>
+      <c r="G80">
+        <v>0.01448274445721646</v>
+      </c>
+      <c r="H80">
+        <v>-0.04490408671842769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1229416850025733</v>
+        <v>-0.125038058962118</v>
       </c>
       <c r="C81">
-        <v>0.05961377791675431</v>
+        <v>-0.03231356707568691</v>
       </c>
       <c r="D81">
-        <v>0.02758815699831935</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02892409613666224</v>
+      </c>
+      <c r="E81">
+        <v>-0.008601027161647515</v>
+      </c>
+      <c r="F81">
+        <v>0.0167270101257463</v>
+      </c>
+      <c r="G81">
+        <v>-0.002115752773514448</v>
+      </c>
+      <c r="H81">
+        <v>-0.1443689594631115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1336658367148219</v>
+        <v>-0.1309127907545518</v>
       </c>
       <c r="C82">
-        <v>0.06702084881472432</v>
+        <v>-0.03694292245433344</v>
       </c>
       <c r="D82">
-        <v>-0.001002028068621795</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03453261811568926</v>
+      </c>
+      <c r="E82">
+        <v>0.0214802468400131</v>
+      </c>
+      <c r="F82">
+        <v>0.04189434323778218</v>
+      </c>
+      <c r="G82">
+        <v>-0.03071691595691263</v>
+      </c>
+      <c r="H82">
+        <v>-0.2116244885224075</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06200518992770257</v>
+        <v>-0.07785480811350903</v>
       </c>
       <c r="C83">
-        <v>-0.03251074790830043</v>
+        <v>0.04141630436954423</v>
       </c>
       <c r="D83">
-        <v>0.02330590442954177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01960012266306266</v>
+      </c>
+      <c r="E83">
+        <v>-0.02215427690264331</v>
+      </c>
+      <c r="F83">
+        <v>0.03186729527177375</v>
+      </c>
+      <c r="G83">
+        <v>0.03906928630713764</v>
+      </c>
+      <c r="H83">
+        <v>0.0238477470688549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02655129118560633</v>
+        <v>-0.0331508926259157</v>
       </c>
       <c r="C84">
-        <v>0.02440766567538612</v>
+        <v>-0.01364264676074746</v>
       </c>
       <c r="D84">
-        <v>0.04005987552191045</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04049463668618751</v>
+      </c>
+      <c r="E84">
+        <v>-0.01743186066866143</v>
+      </c>
+      <c r="F84">
+        <v>-0.03744431528399978</v>
+      </c>
+      <c r="G84">
+        <v>0.03376868820803489</v>
+      </c>
+      <c r="H84">
+        <v>-0.04031008269797458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1193767923547729</v>
+        <v>-0.1228434853046226</v>
       </c>
       <c r="C85">
-        <v>0.04124068141742589</v>
+        <v>-0.01553371486315673</v>
       </c>
       <c r="D85">
-        <v>0.04982886796936636</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03789017455498876</v>
+      </c>
+      <c r="E85">
+        <v>-0.01721504176358938</v>
+      </c>
+      <c r="F85">
+        <v>0.03688737591718098</v>
+      </c>
+      <c r="G85">
+        <v>-0.001647457292083836</v>
+      </c>
+      <c r="H85">
+        <v>-0.1420945246607806</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05316224288206241</v>
+        <v>-0.05614077607329672</v>
       </c>
       <c r="C86">
-        <v>0.02477601684428085</v>
+        <v>-0.00927854838365425</v>
       </c>
       <c r="D86">
-        <v>0.06240493315795298</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03587640485762331</v>
+      </c>
+      <c r="E86">
+        <v>-0.03885962384671739</v>
+      </c>
+      <c r="F86">
+        <v>0.02037352993842625</v>
+      </c>
+      <c r="G86">
+        <v>0.05163846177786414</v>
+      </c>
+      <c r="H86">
+        <v>0.04006504912499622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1234255961222232</v>
+        <v>-0.1257669210694147</v>
       </c>
       <c r="C87">
-        <v>0.07441285930394552</v>
+        <v>-0.03552655269679572</v>
       </c>
       <c r="D87">
-        <v>0.06782372292364441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0688689006452919</v>
+      </c>
+      <c r="E87">
+        <v>-0.01885318790335308</v>
+      </c>
+      <c r="F87">
+        <v>0.01749111832410679</v>
+      </c>
+      <c r="G87">
+        <v>-0.1413815032415425</v>
+      </c>
+      <c r="H87">
+        <v>0.08760597190726317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05406319759743426</v>
+        <v>-0.06293010616171824</v>
       </c>
       <c r="C88">
-        <v>0.03175240310719961</v>
+        <v>-0.01993196121549841</v>
       </c>
       <c r="D88">
-        <v>0.02477410905974559</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03954938009458644</v>
+      </c>
+      <c r="E88">
+        <v>-0.007905431276659075</v>
+      </c>
+      <c r="F88">
+        <v>0.01957788843090565</v>
+      </c>
+      <c r="G88">
+        <v>-0.01580661473323683</v>
+      </c>
+      <c r="H88">
+        <v>-0.04165418532878211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08203691635689554</v>
+        <v>-0.1047226588457202</v>
       </c>
       <c r="C89">
-        <v>0.0668421762173891</v>
+        <v>-0.1218687000689471</v>
       </c>
       <c r="D89">
-        <v>-0.3234742063903565</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3395988359413176</v>
+      </c>
+      <c r="E89">
+        <v>-0.06508977472122204</v>
+      </c>
+      <c r="F89">
+        <v>0.07127071009249482</v>
+      </c>
+      <c r="G89">
+        <v>0.01710385984137335</v>
+      </c>
+      <c r="H89">
+        <v>-0.02164104391397101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06348030668116313</v>
+        <v>-0.08162297114266158</v>
       </c>
       <c r="C90">
-        <v>0.05539147647927799</v>
+        <v>-0.09960809863940674</v>
       </c>
       <c r="D90">
-        <v>-0.2820436308189387</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2811160502656018</v>
+      </c>
+      <c r="E90">
+        <v>-0.05111761615323501</v>
+      </c>
+      <c r="F90">
+        <v>0.02885803268602173</v>
+      </c>
+      <c r="G90">
+        <v>-0.02642910633668918</v>
+      </c>
+      <c r="H90">
+        <v>0.01116026700970075</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08935958785054519</v>
+        <v>-0.09023456802612445</v>
       </c>
       <c r="C91">
-        <v>0.04895117744454494</v>
+        <v>-0.02410988934258703</v>
       </c>
       <c r="D91">
-        <v>0.01423176283911528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03307222521950347</v>
+      </c>
+      <c r="E91">
+        <v>-0.007502297867329168</v>
+      </c>
+      <c r="F91">
+        <v>0.002460501344761223</v>
+      </c>
+      <c r="G91">
+        <v>0.01592146916968661</v>
+      </c>
+      <c r="H91">
+        <v>-0.08944688062365658</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06677060365110453</v>
+        <v>-0.08216489049347031</v>
       </c>
       <c r="C92">
-        <v>0.06226107836810725</v>
+        <v>-0.1135002397162379</v>
       </c>
       <c r="D92">
-        <v>-0.3360790535494005</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.329477889798486</v>
+      </c>
+      <c r="E92">
+        <v>-0.05143579821350525</v>
+      </c>
+      <c r="F92">
+        <v>0.03496997898628151</v>
+      </c>
+      <c r="G92">
+        <v>-0.002484180400860477</v>
+      </c>
+      <c r="H92">
+        <v>-0.01896417582529461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05800395076564499</v>
+        <v>-0.07865933406871695</v>
       </c>
       <c r="C93">
-        <v>0.05917894814735816</v>
+        <v>-0.1103129659543291</v>
       </c>
       <c r="D93">
-        <v>-0.3013377252689382</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.29602053032532</v>
+      </c>
+      <c r="E93">
+        <v>-0.02792844643810733</v>
+      </c>
+      <c r="F93">
+        <v>0.02784616646209504</v>
+      </c>
+      <c r="G93">
+        <v>-0.01758539812819168</v>
+      </c>
+      <c r="H93">
+        <v>-0.003247355520011879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1340220401094122</v>
+        <v>-0.1290574170353753</v>
       </c>
       <c r="C94">
-        <v>0.04291394187363818</v>
+        <v>-0.008087593530711614</v>
       </c>
       <c r="D94">
-        <v>0.04092767552206443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04843469910617016</v>
+      </c>
+      <c r="E94">
+        <v>0.01909952014330469</v>
+      </c>
+      <c r="F94">
+        <v>0.01572319393085292</v>
+      </c>
+      <c r="G94">
+        <v>0.02988555984162285</v>
+      </c>
+      <c r="H94">
+        <v>-0.1093827439770036</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1211605350397826</v>
+        <v>-0.1292473933526502</v>
       </c>
       <c r="C95">
-        <v>0.01733167219637568</v>
+        <v>0.009794092170690759</v>
       </c>
       <c r="D95">
-        <v>0.0541546569759099</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05718867158493252</v>
+      </c>
+      <c r="E95">
+        <v>-0.006143071585441664</v>
+      </c>
+      <c r="F95">
+        <v>0.05001240455218498</v>
+      </c>
+      <c r="G95">
+        <v>-0.0236330770404973</v>
+      </c>
+      <c r="H95">
+        <v>0.09788763442652509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2194320379587647</v>
+        <v>-0.1941360895750462</v>
       </c>
       <c r="C97">
-        <v>0.03691199452511499</v>
+        <v>0.01541217555576441</v>
       </c>
       <c r="D97">
-        <v>-0.09617085814298525</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06476053386865004</v>
+      </c>
+      <c r="E97">
+        <v>0.0684196535771858</v>
+      </c>
+      <c r="F97">
+        <v>-0.9370731188554233</v>
+      </c>
+      <c r="G97">
+        <v>-0.03563241713153056</v>
+      </c>
+      <c r="H97">
+        <v>0.01995172270493011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2418002330202188</v>
+        <v>-0.2734857960111536</v>
       </c>
       <c r="C98">
-        <v>0.05044591435238908</v>
+        <v>-0.01113367250992002</v>
       </c>
       <c r="D98">
-        <v>0.01248483056336478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04075552925438261</v>
+      </c>
+      <c r="E98">
+        <v>0.1999616370100541</v>
+      </c>
+      <c r="F98">
+        <v>0.04980798572527142</v>
+      </c>
+      <c r="G98">
+        <v>0.3422412933722701</v>
+      </c>
+      <c r="H98">
+        <v>0.1753503786055963</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4084688346140442</v>
+        <v>-0.263866413576986</v>
       </c>
       <c r="C99">
-        <v>-0.8937705057060465</v>
+        <v>0.9183633391024063</v>
       </c>
       <c r="D99">
-        <v>-0.04988355368627316</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.222321510225659</v>
+      </c>
+      <c r="E99">
+        <v>-0.06898694652359426</v>
+      </c>
+      <c r="F99">
+        <v>0.07809221956619036</v>
+      </c>
+      <c r="G99">
+        <v>-0.0229760250371998</v>
+      </c>
+      <c r="H99">
+        <v>-0.07294383630860306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04510027246735939</v>
+        <v>-0.04744831367430395</v>
       </c>
       <c r="C101">
-        <v>0.03221891967418661</v>
+        <v>-0.02341722650768391</v>
       </c>
       <c r="D101">
-        <v>0.002366375668483532</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01287087601571179</v>
+      </c>
+      <c r="E101">
+        <v>-0.0574706152198585</v>
+      </c>
+      <c r="F101">
+        <v>0.01213848632536194</v>
+      </c>
+      <c r="G101">
+        <v>-0.01073147613764041</v>
+      </c>
+      <c r="H101">
+        <v>-0.06907982430961163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
